--- a/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RSA/V2023/report-checklist.xlsx
+++ b/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RSA/V2023/report-checklist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Desktop\NEW CUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\condivisa\_________________ACCREDITAMENTO FSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01852C9-23D5-48EA-B548-0BD0C45112E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -555,30 +554,6 @@
 }</t>
   </si>
   <si>
-    <t>5dd2bf16398c3b6a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.6598c65ae5399303a9369ad5fcab265ce9941f9abb9213a2f5ee3cafa81df0e8.11ae8b55da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a4f939d6deb94a91</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ec7b7a855915fadb7e3e783a228162dc1b83b318fb8ec8a18fb44f2b20cb9973.bd0785de4e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a14bde1a946a4ea0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.02c3bdc11dfc5445b5729316d3bfbd485801bf2197315029c82492a6999e0f9f.057297f7ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3cf95f3d8ac0d5c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9223fe24ea0502fbc621cc126935582805911d89870a26986b41c5933f68fc96.fbd7e956a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Caso non applicabile. Il campo da testare è di default valorizzato a “N”  nell'applicativo che genera il CDA2</t>
   </si>
   <si>
@@ -764,11 +739,35 @@
   <si>
     <t>Caso non applicabile. Il campo da testare è di default valorizzato a "S" nell'applicativo che genera il CDA"</t>
   </si>
+  <si>
+    <t>39ee37ee907794ab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.6598c65ae5399303a9369ad5fcab265ce9941f9abb9213a2f5ee3cafa81df0e8.9dbe29bf4d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>55dea9ff40f32bdd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ec7b7a855915fadb7e3e783a228162dc1b83b318fb8ec8a18fb44f2b20cb9973.4a9776de5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>28c6072be6a09195</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.02c3bdc11dfc5445b5729316d3bfbd485801bf2197315029c82492a6999e0f9f.64d9bf3811^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ea3d18d2a508cf6f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9223fe24ea0502fbc621cc126935582805911d89870a26986b41c5933f68fc96.baa94b0df3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -1174,40 +1173,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,6 +1234,39 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,10 +1586,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T707"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1601,8 +1602,8 @@
     <col min="5" max="5" width="18.28515625" style="26" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="26" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="20" style="46" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="20" style="35" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="35" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="26" customWidth="1"/>
     <col min="11" max="11" width="30.28515625" style="26" customWidth="1"/>
     <col min="12" max="12" width="8.140625" style="26" customWidth="1"/>
@@ -1640,14 +1641,14 @@
       <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -1666,14 +1667,14 @@
       <c r="T2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1692,13 +1693,13 @@
       <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="21"/>
@@ -1716,12 +1717,12 @@
       <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -1740,9 +1741,9 @@
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
@@ -1762,9 +1763,9 @@
       <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
@@ -1806,1236 +1807,1236 @@
       <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="40" t="s">
+      <c r="Q9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="40" t="s">
+      <c r="S9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41">
+      <c r="A10" s="30">
         <v>32</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="44" t="s">
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
+      <c r="A11" s="30">
         <v>40</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="36">
         <v>45235</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="46">
         <v>0.4826388888888889</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="44" t="s">
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41">
+      <c r="A12" s="30">
         <v>48</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45" t="s">
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="44" t="s">
+      <c r="S12" s="35"/>
+      <c r="T12" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41">
+      <c r="A13" s="30">
         <v>147</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="36">
+        <v>45237</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30">
+        <v>148</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="36">
+        <v>45237</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>149</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="36">
+        <v>45237</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30">
+        <v>150</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="36">
+        <v>45237</v>
+      </c>
+      <c r="G16" s="46">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>151</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>152</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="255" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30">
+        <v>153</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="36">
         <v>45235</v>
       </c>
-      <c r="G13" s="57">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="44" t="s">
+      <c r="G19" s="46">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
+        <v>154</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="36">
+        <v>45235</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30">
+        <v>155</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
+        <v>156</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30">
+        <v>157</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30">
+        <v>158</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30">
+        <v>159</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30">
+        <v>160</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30">
+        <v>161</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30">
+        <v>162</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="36">
+        <v>45235</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="30">
+        <v>163</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="36">
+        <v>45235</v>
+      </c>
+      <c r="G29" s="46">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30">
+        <v>164</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="36">
+        <v>45235</v>
+      </c>
+      <c r="G30" s="46">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30">
+        <v>165</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="36">
+        <v>45235</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="30">
+        <v>166</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="36">
+        <v>45235</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30">
+        <v>167</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="36">
+        <v>45235</v>
+      </c>
+      <c r="G33" s="46">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="O33" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30">
+        <v>168</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C34" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="47">
+      <c r="D34" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="36">
         <v>45235</v>
       </c>
-      <c r="G14" s="57">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" s="44" t="s">
+      <c r="G34" s="46">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41">
+      <c r="K34" s="33"/>
+      <c r="L34" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="O34" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30">
+        <v>169</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G15" s="58">
-        <v>0.49027777777777781</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41">
-        <v>150</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G16" s="57">
-        <v>0.49236111111111108</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41">
-        <v>151</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="44" t="s">
+      <c r="D35" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41">
-        <v>152</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41">
-        <v>153</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G19" s="57">
-        <v>0.49444444444444446</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="O19" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41">
+      <c r="K35" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G20" s="57">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="O20" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="177" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41">
-        <v>155</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41">
-        <v>156</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41">
-        <v>157</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41">
-        <v>158</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41">
-        <v>159</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41">
-        <v>160</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41">
-        <v>161</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41">
-        <v>162</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G28" s="57">
-        <v>0.4993055555555555</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="O28" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P28" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41">
-        <v>163</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G29" s="57">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="O29" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P29" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41">
-        <v>164</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G30" s="57">
-        <v>0.51180555555555551</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="J30" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="O30" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P30" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41">
-        <v>165</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G31" s="57">
-        <v>0.51458333333333328</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="O31" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P31" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41">
-        <v>166</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G32" s="57">
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="O32" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P32" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41">
-        <v>167</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G33" s="57">
-        <v>0.51874999999999993</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="O33" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P33" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41">
-        <v>168</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="47">
-        <v>45235</v>
-      </c>
-      <c r="G34" s="57">
-        <v>0.52013888888888882</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="O34" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41">
-        <v>169</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="44" t="s">
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -17835,11 +17836,11 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M8 O1:O8 L36:M707 O36:O707" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M8 O1:O8 L36:M707 O36:O707">
       <formula1>"SI,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:K10 L11:M12 O11:O12 Q11:Q12 O19:O20 P11 L19:M20 O28:O34 Q20 J11:J35 L28:M34" xr:uid="{495CFEFA-83DC-4FA6-8B64-05A62D2034F0}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:K10 L11:M12 O11:O12 Q11:Q12 O19:O20 P11 L19:M20 O28:O34 Q20 J11:J35 L28:M34">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17854,7 +17855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>

--- a/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RSA/V2023/report-checklist.xlsx
+++ b/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RSA/V2023/report-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,6 @@
     <t>Il caso di test non è applicabile poiché il token JWT può contenere campi valorizzati in maniera errata ma comunque sempre presenti</t>
   </si>
   <si>
-    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale l’operatore può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
-  </si>
-  <si>
     <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto e viene aggiunto in una coda di errori di validazione dalla quale è possibile dedurre il tipo di errore e apportare le dovute correzioni, al termine delle quali il documento viene nuovamente inviato per la validazione.</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.9223fe24ea0502fbc621cc126935582805911d89870a26986b41c5933f68fc96.baa94b0df3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale il medico può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T707"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="19"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="19"/>
@@ -1696,7 +1696,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="27"/>
@@ -1720,7 +1720,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="19"/>
@@ -1882,7 +1882,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -1920,7 +1920,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="36">
         <v>45235</v>
@@ -1929,10 +1929,10 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="H11" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>117</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>24</v>
@@ -1945,13 +1945,13 @@
         <v>98</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O11" s="33" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
@@ -1987,7 +1987,7 @@
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="Q12" s="33"/>
       <c r="R12" s="34" t="s">
@@ -2021,10 +2021,10 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="H13" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>156</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>24</v>
@@ -2065,10 +2065,10 @@
         <v>0.45694444444444443</v>
       </c>
       <c r="H14" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>158</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>24</v>
@@ -2109,10 +2109,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="H15" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>159</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>160</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>24</v>
@@ -2153,10 +2153,10 @@
         <v>0.45902777777777781</v>
       </c>
       <c r="H16" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="41" t="s">
         <v>161</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>162</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>24</v>
@@ -2198,7 +2198,7 @@
         <v>98</v>
       </c>
       <c r="K17" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -2236,7 +2236,7 @@
         <v>98</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -2273,10 +2273,10 @@
         <v>0.49444444444444446</v>
       </c>
       <c r="H19" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="41" t="s">
         <v>123</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>124</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>24</v>
@@ -2289,13 +2289,13 @@
         <v>98</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O19" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="33"/>
       <c r="R19" s="34"/>
@@ -2327,10 +2327,10 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="H20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="41" t="s">
         <v>126</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>127</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>24</v>
@@ -2343,13 +2343,13 @@
         <v>24</v>
       </c>
       <c r="N20" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O20" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P20" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="34"/>
@@ -2382,7 +2382,7 @@
         <v>98</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -2420,7 +2420,7 @@
         <v>98</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -2458,7 +2458,7 @@
         <v>98</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -2496,7 +2496,7 @@
         <v>98</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -2534,7 +2534,7 @@
         <v>98</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -2572,7 +2572,7 @@
         <v>98</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -2610,7 +2610,7 @@
         <v>98</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
@@ -2647,10 +2647,10 @@
         <v>0.4993055555555555</v>
       </c>
       <c r="H28" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="41" t="s">
         <v>134</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>135</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>24</v>
@@ -2663,13 +2663,13 @@
         <v>24</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O28" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P28" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="33"/>
       <c r="R28" s="34"/>
@@ -2701,10 +2701,10 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="H29" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="41" t="s">
         <v>137</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>138</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>24</v>
@@ -2717,13 +2717,13 @@
         <v>24</v>
       </c>
       <c r="N29" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P29" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="33"/>
       <c r="R29" s="34"/>
@@ -2755,10 +2755,10 @@
         <v>0.51180555555555551</v>
       </c>
       <c r="H30" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="41" t="s">
         <v>140</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>141</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>24</v>
@@ -2771,13 +2771,13 @@
         <v>24</v>
       </c>
       <c r="N30" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O30" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P30" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q30" s="33"/>
       <c r="R30" s="34"/>
@@ -2809,10 +2809,10 @@
         <v>0.51458333333333328</v>
       </c>
       <c r="H31" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>144</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>24</v>
@@ -2825,13 +2825,13 @@
         <v>24</v>
       </c>
       <c r="N31" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P31" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="34"/>
@@ -2863,10 +2863,10 @@
         <v>0.51666666666666672</v>
       </c>
       <c r="H32" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="41" t="s">
         <v>146</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>147</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>24</v>
@@ -2879,13 +2879,13 @@
         <v>24</v>
       </c>
       <c r="N32" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O32" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P32" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q32" s="33"/>
       <c r="R32" s="34"/>
@@ -2917,10 +2917,10 @@
         <v>0.51874999999999993</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>24</v>
@@ -2933,13 +2933,13 @@
         <v>24</v>
       </c>
       <c r="N33" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O33" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P33" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q33" s="33"/>
       <c r="R33" s="34"/>
@@ -2971,10 +2971,10 @@
         <v>0.52013888888888882</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>24</v>
@@ -2987,13 +2987,13 @@
         <v>24</v>
       </c>
       <c r="N34" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O34" s="33" t="s">
         <v>98</v>
       </c>
       <c r="P34" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="33"/>
       <c r="R34" s="34"/>
@@ -3026,7 +3026,7 @@
         <v>98</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
